--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
@@ -178,11 +178,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.41796875" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
@@ -65,10 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -147,10 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
   <si>
     <t>Number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>[No Bool]</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>value</t>
@@ -225,11 +228,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>43831.427141203705</v>
@@ -238,7 +241,7 @@
         <v>43831</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.NullDisplayShortcuts.verified.xlsx
@@ -180,11 +180,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.41796875" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -207,7 +207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
